--- a/BingoAnaliza.xlsx
+++ b/BingoAnaliza.xlsx
@@ -5,23 +5,24 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="593" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="791" firstSheet="0" activeTab="8"/>
   </bookViews>
   <sheets>
-    <sheet name="Temperatura" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Obroty" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Komendy" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="0x01 0x01" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="0x02 0x02" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="0x03 0x03" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="0x04 0x04" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="0x05 0x05" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Napięcie" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Temperatura" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Obroty" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Komendy" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="0x01 0x01" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="0x02 0x02" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="0x03 0x03" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="0x04 0x04" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="0x05 0x05" sheetId="9" state="visible" r:id="rId10"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -81,7 +82,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <authors>
     <author/>
@@ -125,11 +126,14 @@
     <t>Wartość</t>
   </si>
   <si>
+    <t>Napięcie</t>
+  </si>
+  <si>
     <t>Temperatura</t>
   </si>
   <si>
     <r>
-      <t>∆ </t>
+      <t>∆</t>
     </r>
     <r>
       <rPr>
@@ -224,6 +228,9 @@
     <t>0F</t>
   </si>
   <si>
+    <t>6B</t>
+  </si>
+  <si>
     <t>A6</t>
   </si>
   <si>
@@ -320,16 +327,10 @@
     <t>Pobierz 0x01</t>
   </si>
   <si>
-    <t>6B</t>
-  </si>
-  <si>
     <t>0x02</t>
   </si>
   <si>
     <t>Pobierz 0x02</t>
-  </si>
-  <si>
-    <t>EA</t>
   </si>
   <si>
     <t>0x03</t>
@@ -1065,11 +1066,11 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="180" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1102,10 +1103,1670 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B256"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="5" min="1" style="0" width="10.5023255813953"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="15.0697674418605"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="10.5023255813953"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>0.86</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>0.88</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="0" t="n">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" s="0" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" s="0" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" s="0" t="n">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="0" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" s="0" t="n">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="0" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="n">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="0" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" s="0" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="0" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" s="0" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" s="0" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="0" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" s="0" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="0" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" s="0" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="0" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" s="0" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="0" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="0" t="n">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="0" t="n">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="0" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="0" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="0" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="0" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="0" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="0" t="n">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="0" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="0" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="0" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="0" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="0" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="0" t="n">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="0" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="0" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="0" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="0" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="0" t="n">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="0" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="0" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="0" t="n">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="0" t="n">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="0" t="n">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="0" t="n">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="0" t="n">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="0" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="0" t="n">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="0" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="0" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" s="0" t="n">
+        <v>2.02</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="0" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" s="0" t="n">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="0" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" s="0" t="n">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="0" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" s="0" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="0" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" s="0" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="0" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" s="0" t="n">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="0" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" s="0" t="n">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="0" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" s="0" t="n">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="0" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" s="0" t="n">
+        <v>2.18</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="0" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" s="0" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="0" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" s="0" t="n">
+        <v>2.22</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="0" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" s="0" t="n">
+        <v>2.24</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="0" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" s="0" t="n">
+        <v>2.26</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="0" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" s="0" t="n">
+        <v>2.28</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="0" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" s="0" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="0" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>2.32</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="0" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" s="0" t="n">
+        <v>2.34</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="0" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" s="0" t="n">
+        <v>2.36</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="0" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" s="0" t="n">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="0" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" s="0" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="0" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" s="0" t="n">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="0" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" s="0" t="n">
+        <v>2.44</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="0" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" s="0" t="n">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="0" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" s="0" t="n">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="0" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" s="0" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="0" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" s="0" t="n">
+        <v>2.52</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="0" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" s="0" t="n">
+        <v>2.54</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="0" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" s="0" t="n">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="0" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" s="0" t="n">
+        <v>2.58</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="0" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" s="0" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="0" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" s="0" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="0" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" s="0" t="n">
+        <v>2.64</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="0" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" s="0" t="n">
+        <v>2.66</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="0" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" s="0" t="n">
+        <v>2.68</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="0" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" s="0" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="0" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" s="0" t="n">
+        <v>2.72</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="0" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" s="0" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="0" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" s="0" t="n">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="0" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" s="0" t="n">
+        <v>2.78</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="0" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" s="0" t="n">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="0" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" s="0" t="n">
+        <v>2.82</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="0" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" s="0" t="n">
+        <v>2.84</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="0" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" s="0" t="n">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="0" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" s="0" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="0" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" s="0" t="n">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="0" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" s="0" t="n">
+        <v>2.92</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="0" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" s="0" t="n">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="0" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" s="0" t="n">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="0" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" s="0" t="n">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="0" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="0" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="0" t="n">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="0" t="n">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="0" t="n">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="0" t="n">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="0" t="n">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="0" t="n">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="0" t="n">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="0" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="0" t="n">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="0" t="n">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="0" t="n">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="0" t="n">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="0" t="n">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="0" t="n">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="0" t="n">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="0" t="n">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="0" t="n">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="0" t="n">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="0" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="0" t="n">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="0" t="n">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="0" t="n">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="0" t="n">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="0" t="n">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="0" t="n">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="0" t="n">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="0" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="0" t="n">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="0" t="n">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="0" t="n">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="0" t="n">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="0" t="n">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="0" t="n">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="0" t="n">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="0" t="n">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="0" t="n">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="0" t="n">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="0" t="n">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="0" t="n">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="0" t="n">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="0" t="n">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="0" t="n">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="0" t="n">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="0" t="n">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="0" t="n">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="0" t="n">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="0" t="n">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="0" t="n">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="0" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="0" t="n">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="0" t="n">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="0" t="n">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="0" t="n">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="0" t="n">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="0" t="n">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="0" t="n">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="0" t="n">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="0" t="n">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="0" t="n">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="0" t="n">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="0" t="n">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="0" t="n">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="0" t="n">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="0" t="n">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="0" t="n">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="0" t="n">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="0" t="n">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="0" t="n">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="0" t="n">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="0" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="0" t="n">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="0" t="n">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="0" t="n">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="0" t="n">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="0" t="n">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="0" t="n">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="0" t="n">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="0" t="n">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="0" t="n">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="0" t="n">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="0" t="n">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="0" t="n">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="0" t="n">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="0" t="n">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="0" t="n">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="0" t="n">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="0" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="0" t="n">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="0" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="0" t="n">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="0" t="n">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="0" t="n">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="0" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="0" t="n">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="0" t="n">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="0" t="n">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="0" t="n">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="0" t="n">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="0" t="n">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="0" t="n">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="0" t="n">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="0" t="n">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="0" t="n">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="0" t="n">
+        <v>255</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:C107"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -1120,10 +2781,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2406,15 +4067,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F21" activeCellId="0" sqref="F21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -2424,19 +4085,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2447,7 +4108,7 @@
         <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="0" t="n">
         <f aca="false">HEX2DEC(B2)</f>
@@ -2482,7 +4143,7 @@
         <v>1200</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="n">
         <v>30</v>
@@ -2504,7 +4165,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="0" t="n">
         <f aca="false">HEX2DEC(B5)</f>
@@ -2520,7 +4181,7 @@
         <v>1400</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>29</v>
@@ -2558,7 +4219,7 @@
         <v>1600</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>24</v>
@@ -2596,7 +4257,7 @@
         <v>1800</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" s="3" t="n">
         <v>20</v>
@@ -2615,10 +4276,10 @@
         <v>1900</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" s="0" t="n">
         <f aca="false">HEX2DEC(B11)</f>
@@ -2634,10 +4295,10 @@
         <v>2000</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" s="0" t="n">
         <f aca="false">HEX2DEC(B12)</f>
@@ -2653,10 +4314,10 @@
         <v>2100</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0" t="n">
         <f aca="false">HEX2DEC(B13)</f>
@@ -2672,10 +4333,10 @@
         <v>2200</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="0" t="n">
         <f aca="false">HEX2DEC(B14)</f>
@@ -2710,7 +4371,7 @@
         <v>2400</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3" t="n">
         <v>18</v>
@@ -2767,7 +4428,7 @@
         <v>2700</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C19" s="3" t="n">
         <v>15</v>
@@ -2786,7 +4447,7 @@
         <v>2800</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" s="3" t="n">
         <v>14</v>
@@ -2843,7 +4504,7 @@
         <v>3100</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="n">
         <v>12</v>
@@ -2862,7 +4523,7 @@
         <v>3200</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" s="3" t="n">
         <v>12</v>
@@ -2881,7 +4542,7 @@
         <v>3300</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3" t="n">
         <v>11</v>
@@ -2900,7 +4561,7 @@
         <v>3400</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C26" s="3" t="n">
         <v>11</v>
@@ -2919,7 +4580,7 @@
         <v>3500</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C27" s="3" t="n">
         <v>10</v>
@@ -2937,30 +4598,34 @@
       <c r="A28" s="0" t="n">
         <v>3600</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3" t="s">
-        <v>29</v>
+      <c r="B28" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3" t="n">
+        <v>10</v>
       </c>
       <c r="D28" s="0" t="n">
         <f aca="false">HEX2DEC(B28)</f>
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E28" s="0" t="n">
         <f aca="false">HEX2DEC(C28)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
         <v>3700</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>15</v>
+      </c>
       <c r="C29" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" s="0" t="n">
         <f aca="false">HEX2DEC(B29)</f>
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="E29" s="0" t="n">
         <f aca="false">HEX2DEC(C29)</f>
@@ -2971,13 +4636,15 @@
       <c r="A30" s="0" t="n">
         <v>3800</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>31</v>
+      </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" s="0" t="n">
         <f aca="false">HEX2DEC(B30)</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="E30" s="0" t="n">
         <f aca="false">HEX2DEC(C30)</f>
@@ -2988,13 +4655,15 @@
       <c r="A31" s="0" t="n">
         <v>3900</v>
       </c>
-      <c r="B31" s="3"/>
+      <c r="B31" s="3" t="n">
+        <v>5</v>
+      </c>
       <c r="C31" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D31" s="0" t="n">
         <f aca="false">HEX2DEC(B31)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="0" t="n">
         <f aca="false">HEX2DEC(C31)</f>
@@ -3006,10 +4675,10 @@
         <v>4000</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D32" s="0" t="n">
         <f aca="false">HEX2DEC(B32)</f>
@@ -3025,10 +4694,10 @@
         <v>4100</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D33" s="0" t="n">
         <f aca="false">HEX2DEC(B33)</f>
@@ -3044,10 +4713,10 @@
         <v>4200</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D34" s="0" t="n">
         <f aca="false">HEX2DEC(B34)</f>
@@ -3063,10 +4732,10 @@
         <v>4300</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D35" s="0" t="n">
         <f aca="false">HEX2DEC(B35)</f>
@@ -3085,7 +4754,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D36" s="0" t="n">
         <f aca="false">HEX2DEC(B36)</f>
@@ -3104,7 +4773,7 @@
         <v>5</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D37" s="0" t="n">
         <f aca="false">HEX2DEC(B37)</f>
@@ -3120,10 +4789,10 @@
         <v>4600</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" s="0" t="n">
         <f aca="false">HEX2DEC(B38)</f>
@@ -3142,7 +4811,7 @@
         <v>77</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D39" s="0" t="n">
         <f aca="false">HEX2DEC(B39)</f>
@@ -3161,7 +4830,7 @@
         <v>35</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D40" s="0" t="n">
         <f aca="false">HEX2DEC(B40)</f>
@@ -3177,10 +4846,10 @@
         <v>4900</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D41" s="0" t="n">
         <f aca="false">HEX2DEC(B41)</f>
@@ -3196,10 +4865,10 @@
         <v>5000</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D42" s="0" t="n">
         <f aca="false">HEX2DEC(B42)</f>
@@ -3215,10 +4884,10 @@
         <v>5100</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D43" s="0" t="n">
         <f aca="false">HEX2DEC(B43)</f>
@@ -3237,7 +4906,7 @@
         <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D44" s="0" t="n">
         <f aca="false">HEX2DEC(B44)</f>
@@ -3253,10 +4922,10 @@
         <v>5300</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D45" s="0" t="n">
         <f aca="false">HEX2DEC(B45)</f>
@@ -3272,10 +4941,10 @@
         <v>5400</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D46" s="0" t="n">
         <f aca="false">HEX2DEC(B46)</f>
@@ -3291,10 +4960,10 @@
         <v>5500</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D47" s="0" t="n">
         <f aca="false">HEX2DEC(B47)</f>
@@ -3313,7 +4982,7 @@
         <v>76</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D48" s="0" t="n">
         <f aca="false">HEX2DEC(B48)</f>
@@ -3332,7 +5001,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D49" s="0" t="n">
         <f aca="false">HEX2DEC(B49)</f>
@@ -3348,10 +5017,10 @@
         <v>5800</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D50" s="0" t="n">
         <f aca="false">HEX2DEC(B50)</f>
@@ -3367,7 +5036,7 @@
         <v>5900</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C51" s="3" t="n">
         <v>9</v>
@@ -3386,7 +5055,7 @@
         <v>6000</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C52" s="3" t="n">
         <v>9</v>
@@ -3405,7 +5074,7 @@
         <v>6100</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3" t="n">
         <v>9</v>
@@ -3443,7 +5112,7 @@
         <v>6300</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C55" s="3" t="n">
         <v>9</v>
@@ -3500,7 +5169,7 @@
         <v>6600</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C58" s="3" t="n">
         <v>8</v>
@@ -3519,7 +5188,7 @@
         <v>6700</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C59" s="3" t="n">
         <v>8</v>
@@ -3538,7 +5207,7 @@
         <v>6800</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C60" s="3" t="n">
         <v>8</v>
@@ -3557,7 +5226,7 @@
         <v>6900</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C61" s="3" t="n">
         <v>8</v>
@@ -3576,7 +5245,7 @@
         <v>7000</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C62" s="3" t="n">
         <v>8</v>
@@ -3652,7 +5321,7 @@
         <v>7400</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C66" s="3" t="n">
         <v>7</v>
@@ -3671,7 +5340,7 @@
         <v>7500</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C67" s="3" t="n">
         <v>7</v>
@@ -3690,7 +5359,7 @@
         <v>7600</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C68" s="3" t="n">
         <v>7</v>
@@ -3709,7 +5378,7 @@
         <v>7700</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C69" s="3" t="n">
         <v>7</v>
@@ -3747,7 +5416,7 @@
         <v>7900</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71" s="3" t="n">
         <v>7</v>
@@ -3791,15 +5460,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E30" activeCellId="0" sqref="E30"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A31" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -3813,63 +5482,49 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H2" s="0" t="str">
-        <f aca="false">HEX2BIN(G2)</f>
-        <v>1101011</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="H3" s="0" t="str">
-        <f aca="false">HEX2BIN(G3)</f>
-        <v>11101010</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>66</v>
@@ -3880,17 +5535,10 @@
       <c r="D4" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="0" t="str">
-        <f aca="false">HEX2BIN(G4)</f>
-        <v>1101010</v>
-      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>68</v>
@@ -3904,7 +5552,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
@@ -3918,7 +5566,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>72</v>
@@ -3932,7 +5580,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>75</v>
@@ -3946,7 +5594,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>77</v>
@@ -3960,7 +5608,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>79</v>
@@ -3974,7 +5622,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>81</v>
@@ -3988,7 +5636,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>83</v>
@@ -4002,7 +5650,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>85</v>
@@ -4016,7 +5664,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>87</v>
@@ -4030,7 +5678,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>89</v>
@@ -4044,7 +5692,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>91</v>
@@ -4058,7 +5706,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>93</v>
@@ -4072,7 +5720,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>95</v>
@@ -4086,7 +5734,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>97</v>
@@ -4100,7 +5748,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>99</v>
@@ -4114,7 +5762,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>101</v>
@@ -4128,7 +5776,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>103</v>
@@ -4142,7 +5790,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>105</v>
@@ -4156,7 +5804,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>107</v>
@@ -4170,7 +5818,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>109</v>
@@ -4184,7 +5832,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>111</v>
@@ -4198,7 +5846,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>113</v>
@@ -4212,7 +5860,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>115</v>
@@ -4226,7 +5874,7 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>117</v>
@@ -4240,7 +5888,7 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>119</v>
@@ -4254,7 +5902,7 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>121</v>
@@ -4268,7 +5916,7 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>123</v>
@@ -4282,7 +5930,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>123</v>
@@ -4296,7 +5944,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>128</v>
@@ -4310,7 +5958,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>130</v>
@@ -4324,7 +5972,7 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>132</v>
@@ -4338,7 +5986,7 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>134</v>
@@ -4352,7 +6000,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>136</v>
@@ -4366,7 +6014,7 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>138</v>
@@ -4380,7 +6028,7 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>140</v>
@@ -4394,7 +6042,7 @@
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>142</v>
@@ -4408,7 +6056,7 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>144</v>
@@ -4422,7 +6070,7 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>146</v>
@@ -4436,7 +6084,7 @@
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>148</v>
@@ -4450,7 +6098,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>150</v>
@@ -4464,7 +6112,7 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>152</v>
@@ -4478,7 +6126,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>154</v>
@@ -4492,7 +6140,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>156</v>
@@ -4506,7 +6154,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>158</v>
@@ -4520,7 +6168,7 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>160</v>
@@ -4534,7 +6182,7 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>162</v>
@@ -4548,7 +6196,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>124</v>
@@ -4571,14 +6219,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -4594,21 +6242,21 @@
         <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4623,6 +6271,7 @@
       <c r="B4" s="0" t="n">
         <v>8</v>
       </c>
+      <c r="C4" s="4"/>
       <c r="E4" s="0" t="n">
         <v>8</v>
       </c>
@@ -4631,6 +6280,7 @@
       <c r="B5" s="0" t="n">
         <v>7</v>
       </c>
+      <c r="C5" s="4"/>
       <c r="E5" s="0" t="n">
         <v>7</v>
       </c>
@@ -4642,6 +6292,7 @@
       <c r="B6" s="0" t="n">
         <v>6</v>
       </c>
+      <c r="C6" s="4"/>
       <c r="E6" s="0" t="n">
         <v>6</v>
       </c>
@@ -4653,10 +6304,11 @@
       <c r="B7" s="0" t="n">
         <v>5</v>
       </c>
+      <c r="C7" s="4"/>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>169</v>
       </c>
     </row>
@@ -4664,37 +6316,41 @@
       <c r="B8" s="0" t="n">
         <v>4</v>
       </c>
+      <c r="C8" s="4"/>
       <c r="E8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
         <v>3</v>
       </c>
+      <c r="C9" s="4"/>
       <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
+      <c r="C10" s="4"/>
       <c r="E10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
+      <c r="C11" s="4"/>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4711,7 +6367,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -4737,21 +6393,21 @@
         <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>170</v>
@@ -4778,13 +6434,13 @@
       <c r="E4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>173</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4796,11 +6452,11 @@
       <c r="E5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="H5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
@@ -4810,11 +6466,11 @@
       <c r="E6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="H6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
@@ -4824,11 +6480,11 @@
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="H7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
@@ -4838,11 +6494,11 @@
       <c r="E8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="5"/>
       <c r="H8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
@@ -4852,11 +6508,11 @@
       <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="H9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
@@ -4866,11 +6522,11 @@
       <c r="E10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="H10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
@@ -4880,11 +6536,11 @@
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4919,13 +6575,13 @@
       <c r="E15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>179</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>180</v>
       </c>
     </row>
@@ -4937,11 +6593,11 @@
       <c r="E16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="H16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
@@ -4951,11 +6607,11 @@
       <c r="E17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="H17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
@@ -4965,11 +6621,11 @@
       <c r="E18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="5"/>
       <c r="H18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
@@ -4979,11 +6635,11 @@
       <c r="E19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="5"/>
       <c r="H19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
@@ -4993,11 +6649,11 @@
       <c r="E20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
       <c r="H20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
@@ -5007,11 +6663,11 @@
       <c r="E21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="H21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
@@ -5021,11 +6677,11 @@
       <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -5065,8 +6721,8 @@
       <c r="H26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I26" s="4" t="s">
-        <v>1</v>
+      <c r="I26" s="5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5085,7 +6741,7 @@
       <c r="H27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
@@ -5100,7 +6756,7 @@
       <c r="H28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
@@ -5115,7 +6771,7 @@
       <c r="H29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
@@ -5133,7 +6789,7 @@
       <c r="H30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
@@ -5151,7 +6807,7 @@
       <c r="H31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="I31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
@@ -5169,7 +6825,7 @@
       <c r="H32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
@@ -5187,7 +6843,7 @@
       <c r="H33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="5"/>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5221,7 +6877,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5229,7 +6885,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F36" activeCellId="0" sqref="F36"/>
+      <selection pane="topLeft" activeCell="O9" activeCellId="0" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5246,7 +6902,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>66</v>
@@ -5257,10 +6913,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>170</v>
@@ -5299,19 +6955,19 @@
       <c r="E4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>201</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>202</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>203</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -5328,15 +6984,15 @@
       <c r="E5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="H5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="K5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="5"/>
       <c r="N5" s="0" t="n">
         <v>7</v>
       </c>
@@ -5354,15 +7010,15 @@
       <c r="E6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="H6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="K6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5"/>
       <c r="N6" s="0" t="n">
         <v>6</v>
       </c>
@@ -5380,15 +7036,15 @@
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="H7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5"/>
       <c r="K7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="N7" s="0" t="n">
         <v>5</v>
       </c>
@@ -5404,17 +7060,17 @@
       <c r="E8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>210</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
       <c r="K8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="N8" s="0" t="n">
         <v>4</v>
       </c>
@@ -5432,15 +7088,15 @@
       <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="H9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="5"/>
       <c r="K9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="5"/>
       <c r="N9" s="0" t="n">
         <v>3</v>
       </c>
@@ -5458,15 +7114,15 @@
       <c r="E10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="H10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5"/>
       <c r="K10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="5"/>
       <c r="N10" s="0" t="n">
         <v>2</v>
       </c>
@@ -5484,15 +7140,15 @@
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="5"/>
       <c r="K11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="5"/>
       <c r="N11" s="0" t="n">
         <v>1</v>
       </c>
@@ -5538,13 +7194,13 @@
       <c r="B15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>219</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>220</v>
       </c>
       <c r="H15" s="0" t="n">
@@ -5563,12 +7219,12 @@
       <c r="B16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="D16" s="7"/>
       <c r="E16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="H16" s="0" t="n">
         <v>7</v>
       </c>
@@ -5585,16 +7241,16 @@
       <c r="B17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="D17" s="7"/>
       <c r="E17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="H17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>221</v>
       </c>
       <c r="K17" s="0" t="n">
@@ -5603,7 +7259,7 @@
       <c r="N17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="O17" s="4" t="s">
+      <c r="O17" s="5" t="s">
         <v>222</v>
       </c>
     </row>
@@ -5611,111 +7267,111 @@
       <c r="B18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="D18" s="7"/>
       <c r="E18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="5"/>
       <c r="H18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="5"/>
       <c r="K18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="N18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O18" s="4"/>
+      <c r="O18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="D19" s="7"/>
       <c r="E19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="5"/>
       <c r="H19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="5"/>
       <c r="K19" s="0" t="n">
         <v>4</v>
       </c>
       <c r="N19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O19" s="4"/>
+      <c r="O19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="D20" s="7"/>
       <c r="E20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
       <c r="H20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="5"/>
       <c r="K20" s="0" t="n">
         <v>3</v>
       </c>
       <c r="N20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O20" s="4"/>
+      <c r="O20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="7"/>
       <c r="E21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="H21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="5"/>
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
       <c r="N21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O21" s="4"/>
+      <c r="O21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="D22" s="7"/>
       <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="5"/>
       <c r="K22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O22" s="4"/>
+      <c r="O22" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -5737,13 +7393,13 @@
       <c r="B26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>225</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>226</v>
       </c>
     </row>
@@ -5751,71 +7407,71 @@
       <c r="B27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
       <c r="E27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
       <c r="E28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
       <c r="E29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="5"/>
       <c r="E30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="5"/>
       <c r="E31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="5"/>
       <c r="E32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="5"/>
       <c r="E33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
@@ -5852,7 +7508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -5860,7 +7516,7 @@
   <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I36" activeCellId="0" sqref="I36"/>
+      <selection pane="topLeft" activeCell="L4" activeCellId="0" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -5875,7 +7531,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>68</v>
@@ -5886,10 +7542,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>170</v>
@@ -5916,25 +7572,25 @@
       <c r="B4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>229</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>230</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>231</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5942,127 +7598,127 @@
       <c r="B5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="E5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="H5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="K5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="E6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="H6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="K6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="H7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5"/>
       <c r="K7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="E8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="5"/>
       <c r="H8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
       <c r="K8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="H9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="5"/>
       <c r="K9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="E10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="H10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5"/>
       <c r="K10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="5"/>
       <c r="K11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
@@ -6096,11 +7752,11 @@
       <c r="B14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="5"/>
       <c r="E14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="5" t="s">
         <v>233</v>
       </c>
       <c r="H14" s="0" t="n">
@@ -6110,7 +7766,7 @@
       <c r="K14" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L14" s="4" t="s">
+      <c r="L14" s="5" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6118,11 +7774,11 @@
       <c r="B15" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="5"/>
       <c r="E15" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="5"/>
       <c r="H15" s="0" t="n">
         <v>7</v>
       </c>
@@ -6130,17 +7786,17 @@
       <c r="K15" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L15" s="4"/>
+      <c r="L15" s="5"/>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="E16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="H16" s="0" t="n">
         <v>6</v>
       </c>
@@ -6148,99 +7804,99 @@
       <c r="K16" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="5"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="E17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="H17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I17" s="4" t="s">
+      <c r="I17" s="5" t="s">
         <v>235</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="E18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="5"/>
       <c r="H18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="5"/>
       <c r="K18" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="5"/>
       <c r="E19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="5"/>
       <c r="H19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="5"/>
       <c r="K19" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="E20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
       <c r="H20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="5"/>
       <c r="K20" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="E21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="H21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="5"/>
       <c r="K21" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
@@ -6274,7 +7930,7 @@
       <c r="B24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="5" t="s">
         <v>236</v>
       </c>
       <c r="E24" s="0" t="n">
@@ -6283,13 +7939,13 @@
       <c r="H24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I24" s="4" t="s">
+      <c r="I24" s="5" t="s">
         <v>237</v>
       </c>
       <c r="K24" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L24" s="4" t="s">
+      <c r="L24" s="5" t="s">
         <v>238</v>
       </c>
     </row>
@@ -6297,129 +7953,129 @@
       <c r="B25" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="5"/>
       <c r="E25" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="5" t="s">
         <v>239</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I25" s="4"/>
+      <c r="I25" s="5"/>
       <c r="K25" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L25" s="4"/>
+      <c r="L25" s="5"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="5"/>
       <c r="E26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="5"/>
       <c r="H26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I26" s="4"/>
+      <c r="I26" s="5"/>
       <c r="K26" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L26" s="4"/>
+      <c r="L26" s="5"/>
     </row>
     <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
       <c r="E27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="H27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="5"/>
       <c r="K27" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L27" s="4"/>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
       <c r="E28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="5"/>
       <c r="H28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="5"/>
       <c r="K28" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L28" s="4"/>
+      <c r="L28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
       <c r="E29" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="5"/>
       <c r="H29" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="5"/>
       <c r="K29" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L29" s="4"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="5"/>
       <c r="E30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="5"/>
       <c r="H30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="5"/>
       <c r="K30" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L30" s="4"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="5"/>
       <c r="E31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="5"/>
       <c r="H31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="I31" s="5"/>
       <c r="K31" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="4"/>
+      <c r="L31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
@@ -6441,13 +8097,13 @@
       <c r="B34" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="5" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6455,71 +8111,71 @@
       <c r="B35" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="5"/>
       <c r="E35" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="5"/>
     </row>
     <row r="36" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="5"/>
       <c r="E36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="5"/>
     </row>
     <row r="37" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C37" s="4"/>
+      <c r="C37" s="5"/>
       <c r="E37" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="5"/>
     </row>
     <row r="38" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="5"/>
       <c r="E38" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="5"/>
       <c r="E39" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F39" s="4"/>
+      <c r="F39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="5"/>
       <c r="E40" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="5"/>
       <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6548,15 +8204,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F26" activeCellId="0" sqref="F26"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6569,7 +8225,7 @@
         <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>70</v>
@@ -6580,10 +8236,10 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="0" t="s">
         <v>170</v>
@@ -6622,25 +8278,25 @@
       <c r="B4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="5" t="s">
         <v>244</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>245</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="5" t="s">
         <v>246</v>
       </c>
       <c r="K4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="5" t="s">
         <v>247</v>
       </c>
       <c r="N4" s="0" t="n">
@@ -6649,7 +8305,7 @@
       <c r="Q4" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="5" t="s">
         <v>248</v>
       </c>
     </row>
@@ -6657,94 +8313,94 @@
       <c r="B5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="5"/>
       <c r="E5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="5"/>
       <c r="H5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I5" s="4"/>
+      <c r="I5" s="5"/>
       <c r="K5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L5" s="4"/>
+      <c r="L5" s="5"/>
       <c r="N5" s="0" t="n">
         <v>7</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R5" s="4"/>
+      <c r="R5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="5"/>
       <c r="E6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="5"/>
       <c r="H6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I6" s="4"/>
+      <c r="I6" s="5"/>
       <c r="K6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L6" s="4"/>
+      <c r="L6" s="5"/>
       <c r="N6" s="0" t="n">
         <v>6</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="R6" s="4"/>
+      <c r="R6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="5"/>
       <c r="E7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="5"/>
       <c r="H7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="4"/>
+      <c r="I7" s="5"/>
       <c r="K7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L7" s="4"/>
+      <c r="L7" s="5"/>
       <c r="N7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R7" s="4"/>
+      <c r="R7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="5"/>
       <c r="E8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="5"/>
       <c r="H8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I8" s="4"/>
+      <c r="I8" s="5"/>
       <c r="K8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L8" s="4"/>
+      <c r="L8" s="5"/>
       <c r="N8" s="0" t="n">
         <v>4</v>
       </c>
@@ -6754,7 +8410,7 @@
       <c r="Q8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="R8" s="5" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6762,81 +8418,81 @@
       <c r="B9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="5"/>
       <c r="E9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="5"/>
       <c r="H9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I9" s="4"/>
+      <c r="I9" s="5"/>
       <c r="K9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="5"/>
       <c r="N9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O9" s="4" t="s">
+      <c r="O9" s="5" t="s">
         <v>251</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="R9" s="4"/>
+      <c r="R9" s="5"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="5"/>
       <c r="E10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="5"/>
       <c r="H10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I10" s="4"/>
+      <c r="I10" s="5"/>
       <c r="K10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L10" s="4"/>
+      <c r="L10" s="5"/>
       <c r="N10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O10" s="4"/>
+      <c r="O10" s="5"/>
       <c r="Q10" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="R10" s="4"/>
+      <c r="R10" s="5"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="5"/>
       <c r="E11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="5"/>
       <c r="H11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="5"/>
       <c r="K11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="4"/>
+      <c r="L11" s="5"/>
       <c r="N11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O11" s="4"/>
+      <c r="O11" s="5"/>
       <c r="Q11" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R11" s="4"/>
+      <c r="R11" s="5"/>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
@@ -6882,31 +8538,31 @@
       <c r="B15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="5" t="s">
         <v>252</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>253</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="5" t="s">
         <v>254</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L15" s="4" t="s">
+      <c r="L15" s="5" t="s">
         <v>255</v>
       </c>
       <c r="N15" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="O15" s="4" t="s">
+      <c r="O15" s="5" t="s">
         <v>256</v>
       </c>
       <c r="Q15" s="0" t="n">
@@ -6917,27 +8573,27 @@
       <c r="B16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="5"/>
       <c r="E16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="5"/>
       <c r="H16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I16" s="4"/>
+      <c r="I16" s="5"/>
       <c r="K16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L16" s="4"/>
+      <c r="L16" s="5"/>
       <c r="N16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="O16" s="4"/>
+      <c r="O16" s="5"/>
       <c r="Q16" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R16" s="4" t="s">
+      <c r="R16" s="5" t="s">
         <v>257</v>
       </c>
     </row>
@@ -6945,161 +8601,161 @@
       <c r="B17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C17" s="4"/>
+      <c r="C17" s="5"/>
       <c r="E17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="5"/>
       <c r="H17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I17" s="4"/>
+      <c r="I17" s="5"/>
       <c r="K17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L17" s="4"/>
+      <c r="L17" s="5"/>
       <c r="N17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="O17" s="4"/>
+      <c r="O17" s="5"/>
       <c r="Q17" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="R17" s="4"/>
+      <c r="R17" s="5"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="5"/>
       <c r="E18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="5"/>
       <c r="H18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I18" s="4"/>
+      <c r="I18" s="5"/>
       <c r="K18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L18" s="4"/>
+      <c r="L18" s="5"/>
       <c r="N18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O18" s="4" t="s">
+      <c r="O18" s="5" t="s">
         <v>258</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R18" s="4"/>
+      <c r="R18" s="5"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="5" t="s">
         <v>259</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="5"/>
       <c r="H19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I19" s="4"/>
+      <c r="I19" s="5"/>
       <c r="K19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L19" s="4"/>
+      <c r="L19" s="5"/>
       <c r="N19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O19" s="4"/>
+      <c r="O19" s="5"/>
       <c r="Q19" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="R19" s="4"/>
+      <c r="R19" s="5"/>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="5"/>
       <c r="E20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="5"/>
       <c r="H20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I20" s="4"/>
+      <c r="I20" s="5"/>
       <c r="K20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L20" s="4"/>
+      <c r="L20" s="5"/>
       <c r="N20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O20" s="4"/>
+      <c r="O20" s="5"/>
       <c r="Q20" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="R20" s="4"/>
+      <c r="R20" s="5"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="5"/>
       <c r="E21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F21" s="4"/>
+      <c r="F21" s="5"/>
       <c r="H21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I21" s="4"/>
+      <c r="I21" s="5"/>
       <c r="K21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L21" s="4"/>
+      <c r="L21" s="5"/>
       <c r="N21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O21" s="4"/>
+      <c r="O21" s="5"/>
       <c r="Q21" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="4"/>
+      <c r="R21" s="5"/>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="5"/>
       <c r="E22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="5"/>
       <c r="H22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I22" s="4"/>
+      <c r="I22" s="5"/>
       <c r="K22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L22" s="4"/>
+      <c r="L22" s="5"/>
       <c r="N22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O22" s="4"/>
+      <c r="O22" s="5"/>
       <c r="Q22" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R22" s="4"/>
+      <c r="R22" s="5"/>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
@@ -7145,37 +8801,37 @@
       <c r="B26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="5" t="s">
         <v>264</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="5" t="s">
         <v>265</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="I26" s="4" t="s">
+      <c r="I26" s="5" t="s">
         <v>266</v>
       </c>
       <c r="K26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="L26" s="4" t="s">
+      <c r="L26" s="5" t="s">
         <v>267</v>
       </c>
       <c r="N26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="O26" s="4" t="s">
+      <c r="O26" s="5" t="s">
         <v>268</v>
       </c>
       <c r="Q26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="R26" s="4" t="s">
+      <c r="R26" s="5" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7183,183 +8839,183 @@
       <c r="B27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="5"/>
       <c r="E27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="H27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="I27" s="4"/>
+      <c r="I27" s="5"/>
       <c r="K27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="L27" s="4"/>
+      <c r="L27" s="5"/>
       <c r="N27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="O27" s="4"/>
+      <c r="O27" s="5"/>
       <c r="Q27" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="R27" s="4"/>
+      <c r="R27" s="5"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="5"/>
       <c r="E28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="5"/>
       <c r="H28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="I28" s="4"/>
+      <c r="I28" s="5"/>
       <c r="K28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="L28" s="4"/>
+      <c r="L28" s="5"/>
       <c r="N28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="O28" s="4"/>
+      <c r="O28" s="5"/>
       <c r="Q28" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="R28" s="4"/>
+      <c r="R28" s="5"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="5"/>
       <c r="E29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="5"/>
       <c r="H29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="I29" s="4"/>
+      <c r="I29" s="5"/>
       <c r="K29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="L29" s="4"/>
+      <c r="L29" s="5"/>
       <c r="N29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="O29" s="4"/>
+      <c r="O29" s="5"/>
       <c r="Q29" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R29" s="4"/>
+      <c r="R29" s="5"/>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="5"/>
       <c r="E30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="5"/>
       <c r="H30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I30" s="4"/>
+      <c r="I30" s="5"/>
       <c r="K30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="L30" s="4"/>
+      <c r="L30" s="5"/>
       <c r="N30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O30" s="4"/>
+      <c r="O30" s="5"/>
       <c r="Q30" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="R30" s="4"/>
+      <c r="R30" s="5"/>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C31" s="4"/>
+      <c r="C31" s="5"/>
       <c r="E31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="5"/>
       <c r="H31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="I31" s="4"/>
+      <c r="I31" s="5"/>
       <c r="K31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="L31" s="4"/>
+      <c r="L31" s="5"/>
       <c r="N31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="O31" s="4"/>
+      <c r="O31" s="5"/>
       <c r="Q31" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="R31" s="4"/>
+      <c r="R31" s="5"/>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="5"/>
       <c r="E32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F32" s="4"/>
+      <c r="F32" s="5"/>
       <c r="H32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="I32" s="4"/>
+      <c r="I32" s="5"/>
       <c r="K32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="L32" s="4"/>
+      <c r="L32" s="5"/>
       <c r="N32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="O32" s="4"/>
+      <c r="O32" s="5"/>
       <c r="Q32" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="R32" s="4"/>
+      <c r="R32" s="5"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C33" s="4"/>
+      <c r="C33" s="5"/>
       <c r="E33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="5"/>
       <c r="H33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="I33" s="4"/>
+      <c r="I33" s="5"/>
       <c r="K33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="L33" s="4"/>
+      <c r="L33" s="5"/>
       <c r="N33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="O33" s="4"/>
+      <c r="O33" s="5"/>
       <c r="Q33" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="R33" s="4"/>
+      <c r="R33" s="5"/>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
@@ -7375,7 +9031,7 @@
       <c r="B37" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="5" t="s">
         <v>271</v>
       </c>
     </row>
@@ -7383,43 +9039,43 @@
       <c r="B38" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C39" s="4"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="C41" s="4"/>
+      <c r="C41" s="5"/>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="5"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="C43" s="4"/>
+      <c r="C43" s="5"/>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="22">
